--- a/Assets/Resources/SkillDB/SkillBalanceTable.xlsx
+++ b/Assets/Resources/SkillDB/SkillBalanceTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eunsu Park\UnityProject\Dragon_and_Test\Assets\Resources\SkillDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B63F63-5791-429A-A85E-519ABD51169C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29702D7-8F56-49E7-A1C4-A0BB1E17747E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AEBFF8F3-8B34-44B4-8BD4-C39FC3DC70E4}"/>
   </bookViews>
@@ -654,7 +654,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -813,7 +813,9 @@
       <c r="D7" s="1">
         <v>15</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>6</v>
+      </c>
       <c r="F7" s="1">
         <v>30</v>
       </c>

--- a/Assets/Resources/SkillDB/SkillBalanceTable.xlsx
+++ b/Assets/Resources/SkillDB/SkillBalanceTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eunsu Park\UnityProject\Dragon_and_Test\Assets\Resources\SkillDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29702D7-8F56-49E7-A1C4-A0BB1E17747E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CDB7FF-9F36-4576-8004-8643F9EC6668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AEBFF8F3-8B34-44B4-8BD4-C39FC3DC70E4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>cardName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,26 +125,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소나무잎을 올가미처럼 펼쳐 범위 내 적에게 슬로우와 데미지를 준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매화잎을 에이밍한 방향으로 발사해 적을 관통하며 데미지를 준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벚꽃잎을 에이밍한 방향으로 발사해 적을 관통하며 데미지를 준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>등나무 덩굴을 4방향으로 날려 몬스터를 관통하며 속박하고 데미지를 준다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>난초잎을 올가미처럼 펼쳐 범위 내 적에게 슬로우와 데미지를 준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">모란잎을 원형으로 넓게 펼쳐서 적을 넉백시키고 데미지를 준다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,6 +195,23 @@
   <si>
     <t>speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소나무잎을뿌려원형의장판을만든다. 범위 내 적에게 슬로우와 지속데미지를준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매화잎을 연속적으로 발사해 적을 관통하는 브레스를 발사한다. 움직이면서 스킬을 사용할 수 있고 에이밍한 곳으로 발사할 수 있다.</t>
+  </si>
+  <si>
+    <t>벚꽃잎을 연속적으로 발사해 적을 관통하는 브레스를 발사한다. 움직이면서 스킬을 사용할 수 있고 에이밍한 곳으로 발사할 수 있다</t>
+  </si>
+  <si>
+    <t>난초잎을 뿌려 원형의 장판을 만든다. 범위 내 적에게 슬로우와 지속 데미지를 준다</t>
   </si>
 </sst>
 </file>
@@ -651,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AA56DA-8172-46E9-A78E-2FEE4377866A}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -664,7 +665,7 @@
     <col min="8" max="8" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -684,18 +685,21 @@
         <v>25</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -708,16 +712,21 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
@@ -730,16 +739,19 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
@@ -755,13 +767,16 @@
         <v>3</v>
       </c>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -777,13 +792,14 @@
       <c r="H5" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -796,16 +812,21 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1">
-        <v>3</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -821,13 +842,14 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
@@ -843,13 +865,14 @@
         <v>3</v>
       </c>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -865,13 +888,14 @@
       <c r="H9" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -887,13 +911,14 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1">
         <v>5</v>
@@ -909,13 +934,14 @@
         <v>3</v>
       </c>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
@@ -931,13 +957,14 @@
       <c r="H12" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
@@ -953,13 +980,14 @@
       <c r="H13" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
@@ -975,13 +1003,14 @@
       <c r="H14" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
@@ -997,13 +1026,14 @@
       <c r="H15" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
@@ -1019,13 +1049,14 @@
       <c r="H16" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1">
@@ -1041,13 +1072,14 @@
       <c r="H17" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
@@ -1063,13 +1095,14 @@
       <c r="H18" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
@@ -1085,13 +1118,14 @@
       <c r="H19" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
@@ -1107,13 +1141,14 @@
       <c r="H20" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1">
@@ -1129,6 +1164,7 @@
       <c r="H21" s="1">
         <v>40</v>
       </c>
+      <c r="I21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
